--- a/01_Tasks/Docs/Lab01/CheckLists/Lab02_BBT_TCs_Form.xlsx
+++ b/01_Tasks/Docs/Lab01/CheckLists/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC1BF26-90D7-42E6-AB0C-20E3F89CE9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57145B78-E526-4421-BF15-0D040B2BD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -163,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -332,36 +318,6 @@
     <t>#TCs to be run</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#TCs    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>failed</t>
-    </r>
-  </si>
-  <si>
     <t>#Bugs</t>
   </si>
   <si>
@@ -487,6 +443,90 @@
   </si>
   <si>
     <t>intervalul pentru ora</t>
+  </si>
+  <si>
+    <t>public int parseFromStringToSeconds(String stringTime)</t>
+  </si>
+  <si>
+    <t>BBT TCs</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>ECP TCs</t>
+  </si>
+  <si>
+    <t>BVA TCs</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>TC1_ECP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TC3_ECP</t>
+  </si>
+  <si>
+    <t>TC3_BVA</t>
+  </si>
+  <si>
+    <t>TC4_BVA</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>TC4_ECP</t>
+  </si>
+  <si>
+    <t>stringTime</t>
+  </si>
+  <si>
+    <t>-1:00</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>24*3600</t>
+  </si>
+  <si>
+    <t>TC1_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Input</t>
+  </si>
+  <si>
+    <t>#TCs passed</t>
+  </si>
+  <si>
+    <t>#TCs    failed</t>
   </si>
 </sst>
 </file>
@@ -524,20 +564,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -556,15 +582,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,21 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -633,8 +635,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +698,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -975,13 +1020,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,164 +1097,262 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="14" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,40 +1690,40 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="29" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1526,74 +1732,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="7"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+    <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1807,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1609,7 +1815,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1617,34 +1823,34 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1659,9 +1865,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1676,26 +1882,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="23"/>
+    <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1715,277 +1921,278 @@
   </sheetPr>
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>56</v>
+      <c r="C7" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>53</v>
+      <c r="C9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>28</v>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>28</v>
+      <c r="C17" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>28</v>
+      <c r="C19" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="63">
+        <v>59</v>
+      </c>
+      <c r="D25" s="15">
         <v>0.4236111111111111</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>1200</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -1996,7 +2203,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2013,135 +2219,135 @@
   </sheetPr>
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="23"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2149,16 +2355,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2166,16 +2372,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="63">
+        <v>74</v>
+      </c>
+      <c r="F18" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G18">
         <v>3600</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>3</v>
       </c>
@@ -2183,16 +2389,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="63">
+        <v>74</v>
+      </c>
+      <c r="F19" s="15">
         <v>0.95833333333333337</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4</v>
       </c>
@@ -2200,32 +2406,32 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="64">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="17"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2251,202 +2457,427 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="1" max="4" width="8.7265625" style="46"/>
+    <col min="5" max="5" width="14.7265625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="21" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="46"/>
+    <col min="12" max="12" width="9.81640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="59">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="64">
+        <v>2</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="64">
+        <v>-3600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="64">
+        <v>3</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="66">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="64">
+        <v>4</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="64">
+        <v>5</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0</v>
+      </c>
+      <c r="I10" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="64">
+        <v>6</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="66">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="64">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="64">
+        <v>7</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="58">
+        <v>8</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:16" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="I17" s="76"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="47" t="s">
+      <c r="N17" s="76"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="D18" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="C20" s="88">
         <v>8</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="89">
         <v>6</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="89">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F20" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="40">
         <v>1</v>
       </c>
-      <c r="H20" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="2">
+      <c r="H20" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="91">
         <v>2</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="89">
         <v>2</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="90">
         <v>0</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="M20" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="91">
         <v>8</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="89">
         <v>8</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="90">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M21" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="H20:I20"/>
@@ -2462,11 +2893,7 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2475,9 +2902,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,19 +3055,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2661,9 +3087,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>